--- a/data/trans_orig/MCS12_SP-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Provincia-trans_orig.xlsx
@@ -669,10 +669,10 @@
         <v>49.71682122125916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54.05009962012678</v>
+        <v>54.05009962012677</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>50.70397424556698</v>
+        <v>50.70397424556697</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>44.92738972028191</v>
@@ -681,7 +681,7 @@
         <v>46.86970240220666</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>53.62438725686808</v>
+        <v>53.62438725686809</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>51.39417015590818</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>50.95137908885327</v>
+        <v>50.9768074637081</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>49.30605244431187</v>
+        <v>49.39090540123738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48.20703089853722</v>
+        <v>48.46988059755272</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53.46478091658531</v>
+        <v>53.47834974408475</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>49.41921705384768</v>
+        <v>49.47033221029928</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>43.24357095818034</v>
+        <v>43.25534444874199</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>45.58608891138311</v>
+        <v>45.49134806910649</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>53.14054462333907</v>
+        <v>53.13593054465899</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>50.57942773803932</v>
+        <v>50.56800344950386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46.84347354548965</v>
+        <v>46.71721997331135</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47.20487024775453</v>
+        <v>47.38569799262982</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>53.45781895004411</v>
+        <v>53.47750776129477</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>52.95848104336453</v>
+        <v>53.01803438421764</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>51.25332435422308</v>
+        <v>51.30679474290908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50.73387322550152</v>
+        <v>50.93424910478059</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54.44022635554973</v>
+        <v>54.46688774051174</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>51.74358357853586</v>
+        <v>51.79508272826698</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>46.30967411280815</v>
+        <v>46.3741311613535</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>48.23083445820534</v>
+        <v>48.30889164002824</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>54.01253054041104</v>
+        <v>54.01291813193553</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>52.09747585653204</v>
+        <v>52.12499104727249</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48.60455956484539</v>
+        <v>48.58162157338495</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49.19726372518632</v>
+        <v>49.19507453696588</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>54.12046261602038</v>
+        <v>54.1471967978209</v>
       </c>
     </row>
     <row r="7">
@@ -811,7 +811,7 @@
         <v>48.23687074321776</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>51.40618308641488</v>
+        <v>51.40618308641487</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>53.59938028405622</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>50.76871137488297</v>
+        <v>50.77444546925874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>53.57157119362909</v>
+        <v>53.56612890357432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54.92759817006306</v>
+        <v>54.86585405723094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52.92101619651107</v>
+        <v>52.99820618401215</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>47.29492606284551</v>
+        <v>47.32194444604357</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>50.25045378394089</v>
+        <v>50.35510782651627</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>52.71260037913293</v>
+        <v>52.67686104109007</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>51.47640803402694</v>
+        <v>51.49684310326398</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>49.20423042977078</v>
+        <v>49.23620647151951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52.21295010129625</v>
+        <v>52.24401207987904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54.01834594940484</v>
+        <v>54.04048105583107</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>52.44524835495718</v>
+        <v>52.44387365374072</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>52.09823400251715</v>
+        <v>52.14307684785321</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>55.24289145641928</v>
+        <v>55.27001946098912</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56.07219509477501</v>
+        <v>56.01995421192573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54.74809615046939</v>
+        <v>54.7344100210524</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>49.03145406301272</v>
+        <v>49.01008609945017</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>52.43279096033142</v>
+        <v>52.42855819206186</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>54.39406856770484</v>
+        <v>54.35285652800059</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>52.86420844437227</v>
+        <v>52.92190654200181</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>50.32698382140397</v>
+        <v>50.34915109743131</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53.54003386767268</v>
+        <v>53.60799806441949</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55.04504189820886</v>
+        <v>55.01743310660359</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>53.57789908888145</v>
+        <v>53.56504712878164</v>
       </c>
     </row>
     <row r="10">
@@ -938,28 +938,28 @@
         <v>52.71335367863676</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53.01088344225513</v>
+        <v>53.01088344225512</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>54.46006428173207</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>53.88768289494145</v>
+        <v>53.88768289494144</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>50.2296190348942</v>
+        <v>50.22961903489419</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>51.72820997364548</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>52.87936730840229</v>
+        <v>52.8793673084023</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>54.41505683182742</v>
+        <v>54.41505683182741</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51.43979105914833</v>
+        <v>51.43979105914832</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>52.35216949975707</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>54.40600574628714</v>
+        <v>54.39342141071585</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>51.83977696534915</v>
+        <v>51.8464904776683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.45829161529773</v>
+        <v>52.37970029142657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53.50558121267743</v>
+        <v>53.63339269384159</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>53.15930736257036</v>
+        <v>53.19762779686189</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>49.1704768087187</v>
+        <v>49.12364645240751</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>51.01163049804988</v>
+        <v>50.95799818772859</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>52.11809952038177</v>
+        <v>52.11083518393432</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>53.97515488779261</v>
+        <v>54.02014530652564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50.76376435651127</v>
+        <v>50.67960193354781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.90852496911334</v>
+        <v>51.89043354454666</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>52.99263799674991</v>
+        <v>53.07650136924899</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>55.39393974152942</v>
+        <v>55.40219576718211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>53.53758987201682</v>
+        <v>53.48434507669334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.50152168110994</v>
+        <v>53.50629437563804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55.19380572069824</v>
+        <v>55.23706082895144</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>54.38723761027884</v>
+        <v>54.39127970856981</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>51.16566263216451</v>
+        <v>51.13849924065346</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>52.39339144930416</v>
+        <v>52.32288229556886</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>53.56531208913594</v>
+        <v>53.6114020078977</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>54.80282330307059</v>
+        <v>54.79041689654557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52.05434615450498</v>
+        <v>52.0222193740946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.78285395581893</v>
+        <v>52.78742037476205</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>54.14824281146561</v>
+        <v>54.14922012577858</v>
       </c>
     </row>
     <row r="13">
@@ -1071,13 +1071,13 @@
         <v>53.58255461581261</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>51.11424632259496</v>
+        <v>51.11424632259494</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>52.08771098621219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54.17816896437378</v>
+        <v>54.17816896437377</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>51.86724001068927</v>
@@ -1095,7 +1095,7 @@
         <v>52.70987934868958</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48.77513973440779</v>
+        <v>48.7751397344078</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>50.44962659437254</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.89414956890737</v>
+        <v>52.90056533388243</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>50.31211904465341</v>
+        <v>50.29413121615244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51.14455216935416</v>
+        <v>51.07094618457247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53.16706421999233</v>
+        <v>53.11675181820646</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50.94913187597334</v>
+        <v>50.88658671695402</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.30037180691276</v>
+        <v>45.37696805494987</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>47.65191211971731</v>
+        <v>47.52529267957608</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.33956601671903</v>
+        <v>50.44354408355611</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>52.21286901781809</v>
+        <v>52.13405722207237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48.04775209418729</v>
+        <v>48.13478146694727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49.64733090695177</v>
+        <v>49.6023609156972</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>52.0224238610949</v>
+        <v>51.94747271075953</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>54.0879172455813</v>
+        <v>54.10990379939781</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>51.95242677789913</v>
+        <v>51.81282583281821</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.91867367930677</v>
+        <v>52.88931335577031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55.09541816402416</v>
+        <v>55.05237067044309</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>52.5675610574241</v>
+        <v>52.57194364144088</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.66227996307607</v>
+        <v>47.56843335474748</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.02152379709158</v>
+        <v>50.03412178457287</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>52.4614939620697</v>
+        <v>52.51956500552357</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>53.2080018530258</v>
+        <v>53.16438449971123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49.43833868270532</v>
+        <v>49.46406750772194</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51.19710286058558</v>
+        <v>51.18224668030242</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>53.55509010696636</v>
+        <v>53.4729412085173</v>
       </c>
     </row>
     <row r="16">
@@ -1216,16 +1216,16 @@
         <v>49.16414583071465</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>49.31315726119124</v>
+        <v>49.31315726119123</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>49.07178279221809</v>
+        <v>49.0717827922181</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>47.49700874889442</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>47.17889767794472</v>
+        <v>47.17889767794471</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>50.10197044432563</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>49.81970332673563</v>
+        <v>49.71913507121652</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>52.61947707271541</v>
+        <v>52.61534285449369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47.88649524660548</v>
+        <v>47.86201692479931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48.33732481319201</v>
+        <v>48.34597460462941</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>47.97418273762809</v>
+        <v>47.94132732112055</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>47.16129222493785</v>
+        <v>47.37332308117993</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>46.53237355630091</v>
+        <v>46.45763973865673</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>46.47547786897566</v>
+        <v>46.40976758098709</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>49.30109252581186</v>
+        <v>49.25181160976264</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50.43521587122062</v>
+        <v>50.29615613269787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47.43081954101977</v>
+        <v>47.51783712731871</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>47.582085547599</v>
+        <v>47.56359613976541</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>51.90759802757157</v>
+        <v>51.94237925869523</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>54.58835863676523</v>
+        <v>54.56336485485343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49.64018130241256</v>
+        <v>49.64488649447662</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49.92005643612438</v>
+        <v>49.95922229616077</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>50.45864442825721</v>
+        <v>50.32704851230071</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>50.63785308072787</v>
+        <v>50.59964834919092</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>48.42006244305242</v>
+        <v>48.42032415698711</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>47.87544330596758</v>
+        <v>47.92529901962583</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>50.85916993903938</v>
+        <v>50.8484928953114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52.33377685786449</v>
+        <v>52.28379889685192</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48.81666634378577</v>
+        <v>48.78747290278059</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>48.65364654338673</v>
+        <v>48.62343550621994</v>
       </c>
     </row>
     <row r="19">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>54.64348852829108</v>
+        <v>54.64348852829107</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>51.97690291607663</v>
@@ -1349,19 +1349,19 @@
         <v>53.60599418655112</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53.826534187914</v>
+        <v>53.82653418791401</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>52.94489885300476</v>
+        <v>52.94489885300475</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>50.41535693546843</v>
+        <v>50.41535693546842</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>50.87079445725567</v>
+        <v>50.87079445725568</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>52.76917421827783</v>
+        <v>52.7691742182778</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>53.78284872502412</v>
@@ -1373,7 +1373,7 @@
         <v>52.21291112307566</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>53.30426941808316</v>
+        <v>53.30426941808317</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>54.16718851176216</v>
+        <v>54.13182431152224</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>50.97100902769233</v>
+        <v>50.96791153862892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52.62667867658124</v>
+        <v>52.61620728700892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52.91667066518283</v>
+        <v>52.86216942772049</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>52.10873700729665</v>
+        <v>52.09721369920454</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>49.28175270077969</v>
+        <v>49.24722658401772</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>49.54216175643372</v>
+        <v>49.50868659901275</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>51.93603331568374</v>
+        <v>51.95227428910074</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>53.28516603144939</v>
+        <v>53.24767210101232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50.38997603798621</v>
+        <v>50.39943000523791</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51.2804809919331</v>
+        <v>51.35469616560769</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>52.70072118778778</v>
+        <v>52.69453295537594</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>55.10147009544613</v>
+        <v>55.12533077720881</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>52.82100664263783</v>
+        <v>52.860841243455</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54.53424366250369</v>
+        <v>54.50754105339065</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54.5878060587225</v>
+        <v>54.57187726391788</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>53.59620372733479</v>
+        <v>53.63452904166537</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>51.45288199910396</v>
+        <v>51.43951356696835</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>52.09213003248225</v>
+        <v>52.08582943105326</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>53.58950006367624</v>
+        <v>53.62215093397739</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>54.20416011022317</v>
+        <v>54.21651667058453</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>51.84102186756731</v>
+        <v>51.87931228411451</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52.89132037842956</v>
+        <v>53.03129931970881</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>53.8591043918296</v>
+        <v>53.8529908080566</v>
       </c>
     </row>
     <row r="22">
@@ -1491,13 +1491,13 @@
         <v>51.70427244464795</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>50.75106784514644</v>
+        <v>50.75106784514642</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>50.0271656524509</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>48.72524623145833</v>
+        <v>48.72524623145831</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>52.72626110306427</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>53.22135190276994</v>
+        <v>53.22328979509472</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>51.48290743206469</v>
+        <v>51.49794762890113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51.11809395892286</v>
+        <v>51.12686499792476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50.10066102375723</v>
+        <v>50.23140404585534</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>50.9580941549064</v>
+        <v>51.01816103019596</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>50.11094572813407</v>
+        <v>50.09202569395123</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>49.18550140766854</v>
+        <v>49.213944410328</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>47.99548851856945</v>
+        <v>47.95980617789175</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>52.28281158426963</v>
+        <v>52.28819222404532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50.96733940380357</v>
+        <v>50.96401730866924</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50.38191590089843</v>
+        <v>50.35407385297627</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>49.17779679655301</v>
+        <v>49.28543614213149</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>54.21670799963127</v>
+        <v>54.25090348592249</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>52.55674726788839</v>
+        <v>52.57990786454389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.42930228048705</v>
+        <v>52.44801107358612</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51.73981551176728</v>
+        <v>51.83823357679002</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>52.31035215929779</v>
+        <v>52.35330268868505</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>51.32828496227681</v>
+        <v>51.33633109079391</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>50.72279040961408</v>
+        <v>50.75002800528383</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>49.41528303371678</v>
+        <v>49.33317140048286</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>53.11192070373991</v>
+        <v>53.10609548631135</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51.75500298803578</v>
+        <v>51.76848689516643</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51.42700691072248</v>
+        <v>51.35968013358821</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>50.30410647167029</v>
+        <v>50.36502418751669</v>
       </c>
     </row>
     <row r="25">
@@ -1627,7 +1627,7 @@
         <v>49.42810909332283</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>48.54374559870308</v>
+        <v>48.54374559870307</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>51.59576972594994</v>
@@ -1645,7 +1645,7 @@
         <v>52.04396741339453</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>50.49091815621083</v>
+        <v>50.49091815621082</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>49.96590423997564</v>
+        <v>49.9222646946926</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>50.09727048686455</v>
+        <v>50.16152562493016</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52.00727815390562</v>
+        <v>52.01810849321792</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51.24226683213869</v>
+        <v>51.18489062324626</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>48.75924005336203</v>
+        <v>48.72506435344816</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>47.84703751517137</v>
+        <v>47.79066131572386</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>51.02606548674916</v>
+        <v>51.0063062041077</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>48.6779291004576</v>
+        <v>48.66657619908643</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>49.49808560760705</v>
+        <v>49.51982447125061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49.18574472462425</v>
+        <v>49.15833074119045</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51.63448658916646</v>
+        <v>51.66248557119854</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>50.04250975292422</v>
+        <v>50.05497263398584</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>51.26729440692209</v>
+        <v>51.23491028811002</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>51.3877137737388</v>
+        <v>51.41723834447384</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52.96336272120104</v>
+        <v>52.95015894870549</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52.28599667043747</v>
+        <v>52.27072891857256</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>50.12313290652944</v>
+        <v>50.06994445511653</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>49.21063053802371</v>
+        <v>49.14658992814175</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>52.13698109618654</v>
+        <v>52.14474106106335</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>49.87713944042395</v>
+        <v>49.80481673005473</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>50.45675579951429</v>
+        <v>50.45621448476309</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>50.13379738643955</v>
+        <v>50.10089357533111</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>52.39557290545373</v>
+        <v>52.4196357785271</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>50.85300129076761</v>
+        <v>50.8998471722477</v>
       </c>
     </row>
     <row r="28">
@@ -1751,19 +1751,19 @@
         <v>52.55804277496271</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>52.04860487474579</v>
+        <v>52.0486048747458</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>52.44347057430083</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52.6446789507409</v>
+        <v>52.64467895074091</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>50.77200480067182</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>49.22446683611032</v>
+        <v>49.22446683611031</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>50.60832187030361</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>52.28462533983519</v>
+        <v>52.29649153240307</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>51.76442297176563</v>
+        <v>51.78342815579903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>52.14736877867387</v>
+        <v>52.17271222632586</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52.35537262798388</v>
+        <v>52.33762702644714</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>50.44993439366063</v>
+        <v>50.46703393800826</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>48.83425558812782</v>
+        <v>48.89682770956298</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>50.26984022034812</v>
+        <v>50.27019150693313</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>50.38151487727997</v>
+        <v>50.37176261345851</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>51.43559183495859</v>
+        <v>51.46247667178969</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50.36583621687375</v>
+        <v>50.37509197055565</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>51.29129804047871</v>
+        <v>51.31260490159671</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>51.43254738585286</v>
+        <v>51.43239893716463</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>52.77406758474165</v>
+        <v>52.78753820284867</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>52.32120007801576</v>
+        <v>52.33186322024032</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52.69804692375975</v>
+        <v>52.72175861556598</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52.92747356654689</v>
+        <v>52.93060016005115</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>51.04512104303689</v>
+        <v>51.05922725717686</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>49.53304875085944</v>
+        <v>49.57261421938985</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>50.90886128857269</v>
+        <v>50.94169249251926</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>50.94572021439859</v>
+        <v>50.93790061527653</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>51.83642690436615</v>
+        <v>51.8479516222936</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50.82742345019133</v>
+        <v>50.84973980283029</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51.72186069319625</v>
+        <v>51.71372846776369</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>51.84757221832731</v>
+        <v>51.85217571725377</v>
       </c>
     </row>
     <row r="31">
